--- a/Code/Results/Cases/Case_6_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_38/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.58721009560227</v>
+        <v>12.3290657086208</v>
       </c>
       <c r="C2">
-        <v>11.01678865243509</v>
+        <v>5.503921719447531</v>
       </c>
       <c r="D2">
-        <v>4.991354165725732</v>
+        <v>5.288722551627259</v>
       </c>
       <c r="E2">
-        <v>5.271346513172512</v>
+        <v>5.328957161839162</v>
       </c>
       <c r="F2">
-        <v>65.73559125880718</v>
+        <v>67.70880716678698</v>
       </c>
       <c r="G2">
-        <v>2.127263818871314</v>
+        <v>2.171710339172665</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.793035867248692</v>
+        <v>7.219942137067827</v>
       </c>
       <c r="K2">
-        <v>15.03507944276505</v>
+        <v>10.41198559059299</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.12538884165513</v>
+        <v>9.843966583823093</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.46974149096489</v>
+        <v>11.69157887015402</v>
       </c>
       <c r="C3">
-        <v>10.17808044628911</v>
+        <v>5.073556947816265</v>
       </c>
       <c r="D3">
-        <v>4.705255185338442</v>
+        <v>5.028452935853139</v>
       </c>
       <c r="E3">
-        <v>5.332711742219137</v>
+        <v>5.357620391032826</v>
       </c>
       <c r="F3">
-        <v>62.48728782697189</v>
+        <v>64.67426410847401</v>
       </c>
       <c r="G3">
-        <v>2.14069554299649</v>
+        <v>2.182526428023061</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.728890172496889</v>
+        <v>7.134177861733781</v>
       </c>
       <c r="K3">
-        <v>13.93676845811787</v>
+        <v>9.979622654930946</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.71992780658433</v>
+        <v>9.680441286006822</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.78584887261924</v>
+        <v>11.29776485003023</v>
       </c>
       <c r="C4">
-        <v>9.643581580645497</v>
+        <v>4.806233489750239</v>
       </c>
       <c r="D4">
-        <v>4.524219277087999</v>
+        <v>4.863611002079884</v>
       </c>
       <c r="E4">
-        <v>5.373523349737763</v>
+        <v>5.380602497995288</v>
       </c>
       <c r="F4">
-        <v>60.45655865139942</v>
+        <v>62.77052963263991</v>
       </c>
       <c r="G4">
-        <v>2.149082255744247</v>
+        <v>2.189309069933678</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.691895662631874</v>
+        <v>7.083536786609887</v>
       </c>
       <c r="K4">
-        <v>13.4045039439508</v>
+        <v>9.718669378249247</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.48014572170643</v>
+        <v>9.59035618242363</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.50395867906607</v>
+        <v>11.13688265365856</v>
       </c>
       <c r="C5">
-        <v>9.420745682169237</v>
+        <v>4.728808272341339</v>
       </c>
       <c r="D5">
-        <v>4.449078121772923</v>
+        <v>4.795158883052799</v>
       </c>
       <c r="E5">
-        <v>5.390928525471481</v>
+        <v>5.391267958550936</v>
       </c>
       <c r="F5">
-        <v>59.62027311484518</v>
+        <v>61.98506430999397</v>
       </c>
       <c r="G5">
-        <v>2.152539489495936</v>
+        <v>2.192111338675353</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.677394314733112</v>
+        <v>7.063395591613754</v>
       </c>
       <c r="K5">
-        <v>13.18637672333155</v>
+        <v>9.613592465791626</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.38478294826472</v>
+        <v>9.556193870248952</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.45696491288368</v>
+        <v>11.11015086406534</v>
       </c>
       <c r="C6">
-        <v>9.383437924132283</v>
+        <v>4.715984811192754</v>
       </c>
       <c r="D6">
-        <v>4.436518121193441</v>
+        <v>4.783715097743904</v>
       </c>
       <c r="E6">
-        <v>5.393865025826538</v>
+        <v>5.39311595558654</v>
       </c>
       <c r="F6">
-        <v>59.48089444563355</v>
+        <v>61.85407125581454</v>
       </c>
       <c r="G6">
-        <v>2.153116074094071</v>
+        <v>2.192579040736689</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.6750203015235</v>
+        <v>7.060080743861271</v>
       </c>
       <c r="K6">
-        <v>13.15008961043554</v>
+        <v>9.596224861809944</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.36909142844132</v>
+        <v>9.550673676319507</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.78205984684157</v>
+        <v>11.29559645720341</v>
       </c>
       <c r="C7">
-        <v>9.640596801043435</v>
+        <v>4.805187177829212</v>
       </c>
       <c r="D7">
-        <v>4.523211448431518</v>
+        <v>4.862693016055198</v>
       </c>
       <c r="E7">
-        <v>5.373754964595147</v>
+        <v>5.380741141012263</v>
       </c>
       <c r="F7">
-        <v>60.44531501135098</v>
+        <v>62.75997499134927</v>
       </c>
       <c r="G7">
-        <v>2.149128715331018</v>
+        <v>2.189346703866355</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.691697801824319</v>
+        <v>7.083263164852776</v>
       </c>
       <c r="K7">
-        <v>13.40156686971586</v>
+        <v>9.717246978103189</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.47885004511491</v>
+        <v>9.589885205854307</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.18804210667395</v>
+        <v>12.1098654308456</v>
       </c>
       <c r="C8">
-        <v>10.73157679835391</v>
+        <v>5.357500786997931</v>
       </c>
       <c r="D8">
-        <v>4.893807595019616</v>
+        <v>5.20001736970515</v>
       </c>
       <c r="E8">
-        <v>5.29184617303464</v>
+        <v>5.337690075572013</v>
       </c>
       <c r="F8">
-        <v>64.62326820957696</v>
+        <v>66.67116985870869</v>
       </c>
       <c r="G8">
-        <v>2.131868946175044</v>
+        <v>2.175412048895577</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.770405194714933</v>
+        <v>7.18994409537827</v>
       </c>
       <c r="K8">
-        <v>14.6532914396839</v>
+        <v>10.26203982940194</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.9837049346472</v>
+        <v>9.785414124215379</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.19069796001317</v>
+        <v>13.68103219724447</v>
       </c>
       <c r="C9">
-        <v>12.72295601947282</v>
+        <v>6.380613707303665</v>
       </c>
       <c r="D9">
-        <v>5.579391554199882</v>
+        <v>5.822497857869335</v>
       </c>
       <c r="E9">
-        <v>5.156798973674725</v>
+        <v>5.298514707654932</v>
       </c>
       <c r="F9">
-        <v>72.52210278265761</v>
+        <v>74.00423222380051</v>
       </c>
       <c r="G9">
-        <v>2.098901631709087</v>
+        <v>2.149074717815768</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.94507297952484</v>
+        <v>7.415772577200067</v>
       </c>
       <c r="K9">
-        <v>17.30470836978367</v>
+        <v>11.52212314002083</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.11624026057166</v>
+        <v>10.25269260805402</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.29209155138054</v>
+        <v>15.02563943400902</v>
       </c>
       <c r="C10">
-        <v>14.10820493535591</v>
+        <v>7.09214991262741</v>
       </c>
       <c r="D10">
-        <v>6.061058017958309</v>
+        <v>6.257988610986549</v>
       </c>
       <c r="E10">
-        <v>5.074342729297785</v>
+        <v>5.301038260833406</v>
       </c>
       <c r="F10">
-        <v>78.1526713042967</v>
+        <v>79.1762658874643</v>
       </c>
       <c r="G10">
-        <v>2.07484956558355</v>
+        <v>2.130118136155862</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.087927344715975</v>
+        <v>7.592814657307205</v>
       </c>
       <c r="K10">
-        <v>19.13051113987151</v>
+        <v>12.71684897237664</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.48595349781399</v>
+        <v>10.64984136621811</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.22367809414838</v>
+        <v>15.63558745740428</v>
       </c>
       <c r="C11">
-        <v>14.72511334198452</v>
+        <v>7.408530213708481</v>
       </c>
       <c r="D11">
-        <v>6.276386113509028</v>
+        <v>6.451968901245227</v>
       </c>
       <c r="E11">
-        <v>5.040792515154969</v>
+        <v>5.309864678261738</v>
       </c>
       <c r="F11">
-        <v>80.68266184516949</v>
+        <v>81.48309466832984</v>
       </c>
       <c r="G11">
-        <v>2.063845716489196</v>
+        <v>2.121526105420829</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.156637929197587</v>
+        <v>7.676039497789415</v>
       </c>
       <c r="K11">
-        <v>19.9389013825056</v>
+        <v>13.24251440877016</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.09150225741956</v>
+        <v>11.03664147357457</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.57339934141623</v>
+        <v>15.86396344027563</v>
       </c>
       <c r="C12">
-        <v>14.95719080212023</v>
+        <v>7.527426878006814</v>
       </c>
       <c r="D12">
-        <v>6.35748840799337</v>
+        <v>6.52489445335466</v>
       </c>
       <c r="E12">
-        <v>5.028689999117921</v>
+        <v>5.314390225554041</v>
       </c>
       <c r="F12">
-        <v>81.63701638510234</v>
+        <v>82.35027145087098</v>
       </c>
       <c r="G12">
-        <v>2.059659964710937</v>
+        <v>2.118271904481631</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.183249399132062</v>
+        <v>7.70796784888967</v>
       </c>
       <c r="K12">
-        <v>20.24226559198735</v>
+        <v>13.43919892532549</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.31861553684482</v>
+        <v>11.19674453125772</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.49820811499129</v>
+        <v>15.81489099081715</v>
       </c>
       <c r="C13">
-        <v>14.90727021635925</v>
+        <v>7.50185833561078</v>
       </c>
       <c r="D13">
-        <v>6.340039102281965</v>
+        <v>6.509211100261973</v>
       </c>
       <c r="E13">
-        <v>5.031269125341701</v>
+        <v>5.313361625654482</v>
       </c>
       <c r="F13">
-        <v>81.43162745293083</v>
+        <v>82.16378724268939</v>
       </c>
       <c r="G13">
-        <v>2.060562454099507</v>
+        <v>2.11897286943896</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.177490793401812</v>
+        <v>7.701072668741896</v>
       </c>
       <c r="K13">
-        <v>20.17704551374383</v>
+        <v>13.39694167773699</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.26979445383649</v>
+        <v>11.1623490998853</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.25250809687405</v>
+        <v>15.65442703500057</v>
       </c>
       <c r="C14">
-        <v>14.74423481569004</v>
+        <v>7.418329261157647</v>
       </c>
       <c r="D14">
-        <v>6.283066529098654</v>
+        <v>6.457978761558921</v>
       </c>
       <c r="E14">
-        <v>5.039784556401828</v>
+        <v>5.310212811980081</v>
       </c>
       <c r="F14">
-        <v>80.76124558488577</v>
+        <v>81.55456355795174</v>
       </c>
       <c r="G14">
-        <v>2.063501792114736</v>
+        <v>2.121258423719253</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.158815041431065</v>
+        <v>7.678657818085519</v>
       </c>
       <c r="K14">
-        <v>19.96391181065659</v>
+        <v>13.25874215900339</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.11022892562547</v>
+        <v>11.04985208753609</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.10162742646995</v>
+        <v>15.5558056421101</v>
       </c>
       <c r="C15">
-        <v>14.64418363796527</v>
+        <v>7.367051370718686</v>
       </c>
       <c r="D15">
-        <v>6.248115725222226</v>
+        <v>6.426530445220807</v>
       </c>
       <c r="E15">
-        <v>5.045080000372796</v>
+        <v>5.308440600187994</v>
       </c>
       <c r="F15">
-        <v>80.35016483333189</v>
+        <v>81.18057670540882</v>
       </c>
       <c r="G15">
-        <v>2.065299447689762</v>
+        <v>2.122658152576902</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.147454581749899</v>
+        <v>7.664982716196872</v>
       </c>
       <c r="K15">
-        <v>19.83301655571956</v>
+        <v>13.17378789539559</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.01221521886484</v>
+        <v>10.98069073033415</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.23075675689001</v>
+        <v>14.98540406193112</v>
       </c>
       <c r="C16">
-        <v>14.06765222140193</v>
+        <v>7.071338276590504</v>
       </c>
       <c r="D16">
-        <v>6.04691824875005</v>
+        <v>6.245233610013532</v>
       </c>
       <c r="E16">
-        <v>5.076617675434162</v>
+        <v>5.300622570844147</v>
       </c>
       <c r="F16">
-        <v>77.98676220605824</v>
+        <v>79.0246014473684</v>
       </c>
       <c r="G16">
-        <v>2.075566631393378</v>
+        <v>2.130679856430055</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.083516527361492</v>
+        <v>7.587431950967857</v>
       </c>
       <c r="K16">
-        <v>19.07727004930553</v>
+        <v>12.6821524944088</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.4460533133457</v>
+        <v>10.6374806515298</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.69056304355504</v>
+        <v>14.63065650630419</v>
       </c>
       <c r="C17">
-        <v>13.71081956703848</v>
+        <v>6.888150706679792</v>
       </c>
       <c r="D17">
-        <v>5.922589530924863</v>
+        <v>6.132998016358339</v>
       </c>
       <c r="E17">
-        <v>5.097000852348123</v>
+        <v>5.297847578868017</v>
       </c>
       <c r="F17">
-        <v>76.52934541963702</v>
+        <v>77.69033267738745</v>
       </c>
       <c r="G17">
-        <v>2.081842714995136</v>
+        <v>2.135605529871711</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.0452840655247</v>
+        <v>7.540562764905767</v>
       </c>
       <c r="K17">
-        <v>18.60824966197437</v>
+        <v>12.37611255087528</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.09445581821612</v>
+        <v>10.53054345211558</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.37753423464317</v>
+        <v>14.42478793235154</v>
       </c>
       <c r="C18">
-        <v>13.50430577799067</v>
+        <v>6.782089177665876</v>
       </c>
       <c r="D18">
-        <v>5.850715100315767</v>
+        <v>6.068050216713622</v>
       </c>
       <c r="E18">
-        <v>5.109095145675848</v>
+        <v>5.296969163793765</v>
       </c>
       <c r="F18">
-        <v>75.68805892161252</v>
+        <v>76.91854751972413</v>
       </c>
       <c r="G18">
-        <v>2.085447352447696</v>
+        <v>2.138441945380764</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.023640525962382</v>
+        <v>7.513855971712593</v>
       </c>
       <c r="K18">
-        <v>18.33636422314346</v>
+        <v>12.19839633986957</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.89055285481419</v>
+        <v>10.47019492588996</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.2711366537789</v>
+        <v>14.35476579441813</v>
       </c>
       <c r="C19">
-        <v>13.43415485412509</v>
+        <v>6.746054963497936</v>
       </c>
       <c r="D19">
-        <v>5.826314285270141</v>
+        <v>6.045990808303589</v>
       </c>
       <c r="E19">
-        <v>5.113252773181445</v>
+        <v>5.296792693593113</v>
       </c>
       <c r="F19">
-        <v>75.4026749807648</v>
+        <v>76.6564825509556</v>
       </c>
       <c r="G19">
-        <v>2.086667201726017</v>
+        <v>2.139403018377635</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.016370382057957</v>
+        <v>7.504855911072942</v>
       </c>
       <c r="K19">
-        <v>18.24393281331198</v>
+        <v>12.137929037134</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.82121825997217</v>
+        <v>10.44995923615706</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.74830509410588</v>
+        <v>14.66860793906496</v>
       </c>
       <c r="C20">
-        <v>13.74893429134215</v>
+        <v>6.907722516300044</v>
       </c>
       <c r="D20">
-        <v>5.935861492617761</v>
+        <v>6.144985927767632</v>
       </c>
       <c r="E20">
-        <v>5.094792469681076</v>
+        <v>5.29806814909646</v>
       </c>
       <c r="F20">
-        <v>76.68479736244682</v>
+        <v>77.83281672519217</v>
       </c>
       <c r="G20">
-        <v>2.081175219509142</v>
+        <v>2.135080877023713</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.049317708811972</v>
+        <v>7.545525903027086</v>
       </c>
       <c r="K20">
-        <v>18.65839391317243</v>
+        <v>12.4088646557596</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.13205495336921</v>
+        <v>10.54180672923897</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.32475488610326</v>
+        <v>15.70162813904297</v>
       </c>
       <c r="C21">
-        <v>14.79216052740448</v>
+        <v>7.442887233291416</v>
       </c>
       <c r="D21">
-        <v>6.299811671974114</v>
+        <v>6.473040781154259</v>
       </c>
       <c r="E21">
-        <v>5.03726673421929</v>
+        <v>5.311104925418212</v>
       </c>
       <c r="F21">
-        <v>80.95824542392731</v>
+        <v>81.73367751473398</v>
       </c>
       <c r="G21">
-        <v>2.062639035392444</v>
+        <v>2.120587160935781</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.164283988231669</v>
+        <v>7.685230161571136</v>
       </c>
       <c r="K21">
-        <v>20.02658529881107</v>
+        <v>13.29939749302676</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.15715388153412</v>
+        <v>11.08294774546012</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.33755448653842</v>
+        <v>16.36172911847173</v>
       </c>
       <c r="C22">
-        <v>15.46526465413129</v>
+        <v>7.78742794225115</v>
       </c>
       <c r="D22">
-        <v>6.535189438761914</v>
+        <v>6.684388953205735</v>
       </c>
       <c r="E22">
-        <v>5.003200030301816</v>
+        <v>5.326562647174882</v>
       </c>
       <c r="F22">
-        <v>83.73022940480526</v>
+        <v>84.24621286937415</v>
       </c>
       <c r="G22">
-        <v>2.050408919566941</v>
+        <v>2.111108390152399</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.242907205659297</v>
+        <v>7.778957750540279</v>
       </c>
       <c r="K22">
-        <v>20.90497498571859</v>
+        <v>13.86768387718356</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.81451484125196</v>
+        <v>11.5454407821166</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.79843198456907</v>
+        <v>16.01072996895504</v>
       </c>
       <c r="C23">
-        <v>15.10667025773935</v>
+        <v>7.603965335014697</v>
       </c>
       <c r="D23">
-        <v>6.409749780770879</v>
+        <v>6.571844029264954</v>
       </c>
       <c r="E23">
-        <v>5.021046739927872</v>
+        <v>5.317650136274503</v>
       </c>
       <c r="F23">
-        <v>82.25234084647046</v>
+        <v>82.90848278969956</v>
       </c>
       <c r="G23">
-        <v>2.056950663405196</v>
+        <v>2.116169832139706</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.200604115588252</v>
+        <v>7.728701813682242</v>
       </c>
       <c r="K23">
-        <v>20.4374438352765</v>
+        <v>13.56556560395374</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.46469905197843</v>
+        <v>11.29959353879189</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.72220762139915</v>
+        <v>14.65145608779462</v>
       </c>
       <c r="C24">
-        <v>13.73170690619905</v>
+        <v>6.898876430589768</v>
       </c>
       <c r="D24">
-        <v>5.929862480470846</v>
+        <v>6.139567512236909</v>
       </c>
       <c r="E24">
-        <v>5.095789711571523</v>
+        <v>5.297966202017543</v>
       </c>
       <c r="F24">
-        <v>76.61452818132112</v>
+        <v>77.76841433112112</v>
       </c>
       <c r="G24">
-        <v>2.081477004609361</v>
+        <v>2.135318057933267</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.047493053710348</v>
+        <v>7.543281326010151</v>
       </c>
       <c r="K24">
-        <v>18.63573070396395</v>
+        <v>12.39406295554</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.11506190551081</v>
+        <v>10.53671108322794</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.39271583904575</v>
+        <v>13.25947290871196</v>
       </c>
       <c r="C25">
-        <v>12.19895577804382</v>
+        <v>6.111296417957325</v>
       </c>
       <c r="D25">
-        <v>5.398068473350238</v>
+        <v>5.658109550212523</v>
       </c>
       <c r="E25">
-        <v>5.190484871921075</v>
+        <v>5.303898049240709</v>
       </c>
       <c r="F25">
-        <v>70.41684164044108</v>
+        <v>72.05807620291102</v>
       </c>
       <c r="G25">
-        <v>2.107760867300092</v>
+        <v>2.156114050427609</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.895440711446716</v>
+        <v>7.352805778141677</v>
       </c>
       <c r="K25">
-        <v>16.61017247181255</v>
+        <v>11.06522321792315</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.75057485476124</v>
+        <v>10.11702872233651</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.3290657086208</v>
+        <v>11.88297169371704</v>
       </c>
       <c r="C2">
-        <v>5.503921719447531</v>
+        <v>7.889912599155903</v>
       </c>
       <c r="D2">
-        <v>5.288722551627259</v>
+        <v>5.266678063342315</v>
       </c>
       <c r="E2">
-        <v>5.328957161839162</v>
+        <v>8.657419120247697</v>
       </c>
       <c r="F2">
-        <v>67.70880716678698</v>
+        <v>29.3281160810526</v>
       </c>
       <c r="G2">
-        <v>2.171710339172665</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>36.85098422862688</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.791865716814595</v>
       </c>
       <c r="J2">
-        <v>7.219942137067827</v>
+        <v>12.46709777370681</v>
       </c>
       <c r="K2">
-        <v>10.41198559059299</v>
+        <v>19.39472967583186</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.20846620698019</v>
       </c>
       <c r="M2">
-        <v>9.843966583823093</v>
+        <v>11.04896245926897</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.12146482941654</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.69157887015402</v>
+        <v>11.11819376637551</v>
       </c>
       <c r="C3">
-        <v>5.073556947816265</v>
+        <v>7.337347971026495</v>
       </c>
       <c r="D3">
-        <v>5.028452935853139</v>
+        <v>5.060243213343934</v>
       </c>
       <c r="E3">
-        <v>5.357620391032826</v>
+        <v>8.470673817259279</v>
       </c>
       <c r="F3">
-        <v>64.67426410847401</v>
+        <v>28.88491847901447</v>
       </c>
       <c r="G3">
-        <v>2.182526428023061</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>36.20796107917322</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.004268764475278</v>
       </c>
       <c r="J3">
-        <v>7.134177861733781</v>
+        <v>12.43977886163445</v>
       </c>
       <c r="K3">
-        <v>9.979622654930946</v>
+        <v>19.34768243034133</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.209341774934677</v>
       </c>
       <c r="M3">
-        <v>9.680441286006822</v>
+        <v>10.372845562429</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.6840840100356</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.29776485003023</v>
+        <v>10.62029805251941</v>
       </c>
       <c r="C4">
-        <v>4.806233489750239</v>
+        <v>6.984054346761442</v>
       </c>
       <c r="D4">
-        <v>4.863611002079884</v>
+        <v>4.933190253855893</v>
       </c>
       <c r="E4">
-        <v>5.380602497995288</v>
+        <v>8.359182851301144</v>
       </c>
       <c r="F4">
-        <v>62.77052963263991</v>
+        <v>28.62081054323874</v>
       </c>
       <c r="G4">
-        <v>2.189309069933678</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>35.82094311842269</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.139743756797198</v>
       </c>
       <c r="J4">
-        <v>7.083536786609887</v>
+        <v>12.42659205836762</v>
       </c>
       <c r="K4">
-        <v>9.718669378249247</v>
+        <v>19.32259953189298</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.212112824317077</v>
       </c>
       <c r="M4">
-        <v>9.59035618242363</v>
+        <v>9.935544072444941</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.41174649088144</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.13688265365856</v>
+        <v>10.40777598926208</v>
       </c>
       <c r="C5">
-        <v>4.728808272341339</v>
+        <v>6.846503492968941</v>
       </c>
       <c r="D5">
-        <v>4.795158883052799</v>
+        <v>4.885030583421615</v>
       </c>
       <c r="E5">
-        <v>5.391267958550936</v>
+        <v>8.315620840072295</v>
       </c>
       <c r="F5">
-        <v>61.98506430999397</v>
+        <v>28.50112711237222</v>
       </c>
       <c r="G5">
-        <v>2.192111338675353</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>35.6401673999699</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.198785516342644</v>
       </c>
       <c r="J5">
-        <v>7.063395591613754</v>
+        <v>12.41742535911861</v>
       </c>
       <c r="K5">
-        <v>9.613592465791626</v>
+        <v>19.30274994596046</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.213344378699319</v>
       </c>
       <c r="M5">
-        <v>9.556193870248952</v>
+        <v>9.753225824502961</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.30182015838183</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.11015086406534</v>
+        <v>10.36901226625286</v>
       </c>
       <c r="C6">
-        <v>4.715984811192754</v>
+        <v>6.835633440942157</v>
       </c>
       <c r="D6">
-        <v>4.783715097743904</v>
+        <v>4.88145224609387</v>
       </c>
       <c r="E6">
-        <v>5.39311595558654</v>
+        <v>8.309697312573675</v>
       </c>
       <c r="F6">
-        <v>61.85407125581454</v>
+        <v>28.46411456920013</v>
       </c>
       <c r="G6">
-        <v>2.192579040736689</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>35.57957642355441</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.211909296493643</v>
       </c>
       <c r="J6">
-        <v>7.060080743861271</v>
+        <v>12.41024490323406</v>
       </c>
       <c r="K6">
-        <v>9.596224861809944</v>
+        <v>19.28661006717657</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.213033948594454</v>
       </c>
       <c r="M6">
-        <v>9.550673676319507</v>
+        <v>9.724384632862934</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.28577552945733</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.29559645720341</v>
+        <v>10.60933984955495</v>
       </c>
       <c r="C7">
-        <v>4.805187177829212</v>
+        <v>7.01459651502624</v>
       </c>
       <c r="D7">
-        <v>4.862693016055198</v>
+        <v>4.94442204726577</v>
       </c>
       <c r="E7">
-        <v>5.380741141012263</v>
+        <v>8.361997535871483</v>
       </c>
       <c r="F7">
-        <v>62.75997499134927</v>
+        <v>28.5723024651178</v>
       </c>
       <c r="G7">
-        <v>2.189346703866355</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>35.73516490401015</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.149137329477352</v>
       </c>
       <c r="J7">
-        <v>7.083263164852776</v>
+        <v>12.41090843526356</v>
       </c>
       <c r="K7">
-        <v>9.717246978103189</v>
+        <v>19.28716786991768</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.210636205950686</v>
       </c>
       <c r="M7">
-        <v>9.589885205854307</v>
+        <v>9.937834692121616</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.41630973044565</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.1098654308456</v>
+        <v>11.61519386229982</v>
       </c>
       <c r="C8">
-        <v>5.357500786997931</v>
+        <v>7.741453768478849</v>
       </c>
       <c r="D8">
-        <v>5.20001736970515</v>
+        <v>5.210534607607911</v>
       </c>
       <c r="E8">
-        <v>5.337690075572013</v>
+        <v>8.596769285265161</v>
       </c>
       <c r="F8">
-        <v>66.67116985870869</v>
+        <v>29.11296516681498</v>
       </c>
       <c r="G8">
-        <v>2.175412048895577</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>36.52003862434889</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.875066840400559</v>
       </c>
       <c r="J8">
-        <v>7.18994409537827</v>
+        <v>12.43654188670034</v>
       </c>
       <c r="K8">
-        <v>10.26203982940194</v>
+        <v>19.33158734434149</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.20634675747166</v>
       </c>
       <c r="M8">
-        <v>9.785414124215379</v>
+        <v>10.82626764805995</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.97906331134944</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.68103219724447</v>
+        <v>13.37694203451053</v>
       </c>
       <c r="C9">
-        <v>6.380613707303665</v>
+        <v>9.005922447802575</v>
       </c>
       <c r="D9">
-        <v>5.822497857869335</v>
+        <v>5.70697156479152</v>
       </c>
       <c r="E9">
-        <v>5.298514707654932</v>
+        <v>9.074411929723395</v>
       </c>
       <c r="F9">
-        <v>74.00423222380051</v>
+        <v>30.31632539760238</v>
       </c>
       <c r="G9">
-        <v>2.149074717815768</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>38.26201060181948</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.362660640741727</v>
       </c>
       <c r="J9">
-        <v>7.415772577200067</v>
+        <v>12.54384351386692</v>
       </c>
       <c r="K9">
-        <v>11.52212314002083</v>
+        <v>19.51242399731415</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.218809020154811</v>
       </c>
       <c r="M9">
-        <v>10.25269260805402</v>
+        <v>12.38491748277694</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.03633725378306</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.02563943400902</v>
+        <v>14.53338553966061</v>
       </c>
       <c r="C10">
-        <v>7.09214991262741</v>
+        <v>9.882098908519637</v>
       </c>
       <c r="D10">
-        <v>6.257988610986549</v>
+        <v>6.069528498133832</v>
       </c>
       <c r="E10">
-        <v>5.301038260833406</v>
+        <v>9.43825244748218</v>
       </c>
       <c r="F10">
-        <v>79.1762658874643</v>
+        <v>31.2136651901799</v>
       </c>
       <c r="G10">
-        <v>2.130118136155862</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>39.53469171192619</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.014277337497978</v>
       </c>
       <c r="J10">
-        <v>7.592814657307205</v>
+        <v>12.63479127005293</v>
       </c>
       <c r="K10">
-        <v>12.71684897237664</v>
+        <v>19.64953296654819</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.239108738545924</v>
       </c>
       <c r="M10">
-        <v>10.64984136621811</v>
+        <v>13.42525380507501</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12.78624603095495</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.63558745740428</v>
+        <v>15.02104462922348</v>
       </c>
       <c r="C11">
-        <v>7.408530213708481</v>
+        <v>10.30335527339208</v>
       </c>
       <c r="D11">
-        <v>6.451968901245227</v>
+        <v>6.247470246705195</v>
       </c>
       <c r="E11">
-        <v>5.309864678261738</v>
+        <v>9.610454393068178</v>
       </c>
       <c r="F11">
-        <v>81.48309466832984</v>
+        <v>31.56088039832709</v>
       </c>
       <c r="G11">
-        <v>2.121526105420829</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>40.00012489466544</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.877269918587723</v>
       </c>
       <c r="J11">
-        <v>7.676039497789415</v>
+        <v>12.65664519122717</v>
       </c>
       <c r="K11">
-        <v>13.24251440877016</v>
+        <v>19.66224052858131</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.248759401889573</v>
       </c>
       <c r="M11">
-        <v>11.03664147357457</v>
+        <v>13.88127907975397</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.12730469677113</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.86396344027563</v>
+        <v>15.20696238888867</v>
       </c>
       <c r="C12">
-        <v>7.527426878006814</v>
+        <v>10.44058347093705</v>
       </c>
       <c r="D12">
-        <v>6.52489445335466</v>
+        <v>6.306112076684127</v>
       </c>
       <c r="E12">
-        <v>5.314390225554041</v>
+        <v>9.673314992139449</v>
       </c>
       <c r="F12">
-        <v>82.35027145087098</v>
+        <v>31.73019770589083</v>
       </c>
       <c r="G12">
-        <v>2.118271904481631</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>40.24200458362594</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.817816566853232</v>
       </c>
       <c r="J12">
-        <v>7.70796784888967</v>
+        <v>12.67853842900305</v>
       </c>
       <c r="K12">
-        <v>13.43919892532549</v>
+        <v>19.69712522712517</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.254063989414826</v>
       </c>
       <c r="M12">
-        <v>11.19674453125772</v>
+        <v>14.04755288100341</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.25115813263429</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.81489099081715</v>
+        <v>15.16814849969846</v>
       </c>
       <c r="C13">
-        <v>7.50185833561078</v>
+        <v>10.40715802365278</v>
       </c>
       <c r="D13">
-        <v>6.509211100261973</v>
+        <v>6.291855828116377</v>
       </c>
       <c r="E13">
-        <v>5.313361625654482</v>
+        <v>9.659256200608288</v>
       </c>
       <c r="F13">
-        <v>82.16378724268939</v>
+        <v>31.70099797928054</v>
       </c>
       <c r="G13">
-        <v>2.11897286943896</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>40.20271224582576</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.828783607066832</v>
       </c>
       <c r="J13">
-        <v>7.701072668741896</v>
+        <v>12.67637556719608</v>
       </c>
       <c r="K13">
-        <v>13.39694167773699</v>
+        <v>19.6954354358217</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.253151988524277</v>
       </c>
       <c r="M13">
-        <v>11.1623490998853</v>
+        <v>14.01127354971626</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.22372916698238</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.65442703500057</v>
+        <v>15.03686943574164</v>
       </c>
       <c r="C14">
-        <v>7.418329261157647</v>
+        <v>10.31298763036432</v>
       </c>
       <c r="D14">
-        <v>6.457978761558921</v>
+        <v>6.251599360228644</v>
       </c>
       <c r="E14">
-        <v>5.310212811980081</v>
+        <v>9.615403388818656</v>
       </c>
       <c r="F14">
-        <v>81.55456355795174</v>
+        <v>31.57790763599833</v>
       </c>
       <c r="G14">
-        <v>2.121258423719253</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>40.02548460694191</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.871596683182175</v>
       </c>
       <c r="J14">
-        <v>7.678657818085519</v>
+        <v>12.65953160647929</v>
       </c>
       <c r="K14">
-        <v>13.25874215900339</v>
+        <v>19.66758706596337</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.249293398648084</v>
       </c>
       <c r="M14">
-        <v>11.04985208753609</v>
+        <v>13.89476084392092</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.13717215669209</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.5558056421101</v>
+        <v>14.95383616054033</v>
       </c>
       <c r="C15">
-        <v>7.367051370718686</v>
+        <v>10.2629869910327</v>
       </c>
       <c r="D15">
-        <v>6.426530445220807</v>
+        <v>6.230172364309993</v>
       </c>
       <c r="E15">
-        <v>5.308440600187994</v>
+        <v>9.589587767215155</v>
       </c>
       <c r="F15">
-        <v>81.18057670540882</v>
+        <v>31.48813677061663</v>
       </c>
       <c r="G15">
-        <v>2.122658152576902</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>39.89154450064961</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.901512817326673</v>
       </c>
       <c r="J15">
-        <v>7.664982716196872</v>
+        <v>12.64420224098521</v>
       </c>
       <c r="K15">
-        <v>13.17378789539559</v>
+        <v>19.63906441016705</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.24649216513481</v>
       </c>
       <c r="M15">
-        <v>10.98069073033415</v>
+        <v>13.82419756906318</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.08561435361361</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.98540406193112</v>
+        <v>14.48294939360885</v>
       </c>
       <c r="C16">
-        <v>7.071338276590504</v>
+        <v>9.922862967413382</v>
       </c>
       <c r="D16">
-        <v>6.245233610013532</v>
+        <v>6.086010699283662</v>
       </c>
       <c r="E16">
-        <v>5.300622570844147</v>
+        <v>9.435710035240449</v>
       </c>
       <c r="F16">
-        <v>79.0246014473684</v>
+        <v>31.06760382337138</v>
       </c>
       <c r="G16">
-        <v>2.130679856430055</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>39.28706915917111</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.051634650286682</v>
       </c>
       <c r="J16">
-        <v>7.587431950967857</v>
+        <v>12.59023625405898</v>
       </c>
       <c r="K16">
-        <v>12.6821524944088</v>
+        <v>19.55083945605135</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.234379268469315</v>
       </c>
       <c r="M16">
-        <v>10.6374806515298</v>
+        <v>13.40557723665623</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.77769849222225</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.63065650630419</v>
+        <v>14.18671943007548</v>
       </c>
       <c r="C17">
-        <v>6.888150706679792</v>
+        <v>9.71085001587487</v>
       </c>
       <c r="D17">
-        <v>6.132998016358339</v>
+        <v>5.996975409854495</v>
       </c>
       <c r="E17">
-        <v>5.297847578868017</v>
+        <v>9.341766545702146</v>
       </c>
       <c r="F17">
-        <v>77.69033267738745</v>
+        <v>30.81165949123262</v>
       </c>
       <c r="G17">
-        <v>2.135605529871711</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>38.91812767850008</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.145031310657932</v>
       </c>
       <c r="J17">
-        <v>7.540562764905767</v>
+        <v>12.55847913560153</v>
       </c>
       <c r="K17">
-        <v>12.37611255087528</v>
+        <v>19.49838930587445</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.227673992989859</v>
       </c>
       <c r="M17">
-        <v>10.53054345211558</v>
+        <v>13.14292996939894</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.58681631294347</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.42478793235154</v>
+        <v>14.01922602213841</v>
       </c>
       <c r="C18">
-        <v>6.782089177665876</v>
+        <v>9.566144164092954</v>
       </c>
       <c r="D18">
-        <v>6.068050216713622</v>
+        <v>5.936812274281836</v>
       </c>
       <c r="E18">
-        <v>5.296969163793765</v>
+        <v>9.285237257057382</v>
       </c>
       <c r="F18">
-        <v>76.91854751972413</v>
+        <v>30.70311132029327</v>
       </c>
       <c r="G18">
-        <v>2.138441945380764</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>38.77341391519312</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.190023397130552</v>
       </c>
       <c r="J18">
-        <v>7.513855971712593</v>
+        <v>12.5538491280085</v>
       </c>
       <c r="K18">
-        <v>12.19839633986957</v>
+        <v>19.49859036729223</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.225343856277908</v>
       </c>
       <c r="M18">
-        <v>10.47019492588996</v>
+        <v>12.98640219701685</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.47199207516576</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.35476579441813</v>
+        <v>13.95773317430321</v>
       </c>
       <c r="C19">
-        <v>6.746054963497936</v>
+        <v>9.533485891674301</v>
       </c>
       <c r="D19">
-        <v>6.045990808303589</v>
+        <v>5.923141718444836</v>
       </c>
       <c r="E19">
-        <v>5.296792693593113</v>
+        <v>9.268190949141859</v>
       </c>
       <c r="F19">
-        <v>76.6564825509556</v>
+        <v>30.63729113986981</v>
       </c>
       <c r="G19">
-        <v>2.139403018377635</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>38.67309888341936</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.212378106559014</v>
       </c>
       <c r="J19">
-        <v>7.504855911072942</v>
+        <v>12.54222484892936</v>
       </c>
       <c r="K19">
-        <v>12.137929037134</v>
+        <v>19.47580496514759</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.223624691308484</v>
       </c>
       <c r="M19">
-        <v>10.44995923615706</v>
+        <v>12.93557870075176</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.43632888820872</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.66860793906496</v>
+        <v>14.21896927228478</v>
       </c>
       <c r="C20">
-        <v>6.907722516300044</v>
+        <v>9.73188203966259</v>
       </c>
       <c r="D20">
-        <v>6.144985927767632</v>
+        <v>6.005795240286667</v>
       </c>
       <c r="E20">
-        <v>5.29806814909646</v>
+        <v>9.351540033186186</v>
       </c>
       <c r="F20">
-        <v>77.83281672519217</v>
+        <v>30.84178436584373</v>
       </c>
       <c r="G20">
-        <v>2.135080877023713</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>38.96253712246904</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.1343037376569</v>
       </c>
       <c r="J20">
-        <v>7.545525903027086</v>
+        <v>12.56283868358421</v>
       </c>
       <c r="K20">
-        <v>12.4088646557596</v>
+        <v>19.50624081873007</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.228459576688882</v>
       </c>
       <c r="M20">
-        <v>10.54180672923897</v>
+        <v>13.17085538205904</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.60687348425835</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.70162813904297</v>
+        <v>15.06965782496931</v>
       </c>
       <c r="C21">
-        <v>7.442887233291416</v>
+        <v>10.3629934061285</v>
       </c>
       <c r="D21">
-        <v>6.473040781154259</v>
+        <v>6.272682102851809</v>
       </c>
       <c r="E21">
-        <v>5.311104925418212</v>
+        <v>9.631149765081229</v>
       </c>
       <c r="F21">
-        <v>81.73367751473398</v>
+        <v>31.57297023850255</v>
       </c>
       <c r="G21">
-        <v>2.120587160935781</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>40.00538650371178</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.86937125567776</v>
       </c>
       <c r="J21">
-        <v>7.685230161571136</v>
+        <v>12.6499622462036</v>
       </c>
       <c r="K21">
-        <v>13.29939749302676</v>
+        <v>19.64288171040812</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.249019314753726</v>
       </c>
       <c r="M21">
-        <v>11.08294774546012</v>
+        <v>13.93253121485986</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.16717565779572</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.36172911847173</v>
+        <v>15.6091835605113</v>
       </c>
       <c r="C22">
-        <v>7.78742794225115</v>
+        <v>10.73632399999947</v>
       </c>
       <c r="D22">
-        <v>6.684388953205735</v>
+        <v>6.433265985827777</v>
       </c>
       <c r="E22">
-        <v>5.326562647174882</v>
+        <v>9.811583130366055</v>
       </c>
       <c r="F22">
-        <v>84.24621286937415</v>
+        <v>32.10940427158474</v>
       </c>
       <c r="G22">
-        <v>2.111108390152399</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>40.78428905174754</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.687136458993726</v>
       </c>
       <c r="J22">
-        <v>7.778957750540279</v>
+        <v>12.72983551726185</v>
       </c>
       <c r="K22">
-        <v>13.86768387718356</v>
+        <v>19.77952155753313</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.266658835922358</v>
       </c>
       <c r="M22">
-        <v>11.5454407821166</v>
+        <v>14.40694664618365</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>13.58875669492831</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.01072996895504</v>
+        <v>15.33042955877401</v>
       </c>
       <c r="C23">
-        <v>7.603965335014697</v>
+        <v>10.5114840152846</v>
       </c>
       <c r="D23">
-        <v>6.571844029264954</v>
+        <v>6.336710061620154</v>
       </c>
       <c r="E23">
-        <v>5.317650136274503</v>
+        <v>9.711732980132574</v>
       </c>
       <c r="F23">
-        <v>82.90848278969956</v>
+        <v>31.87179278563941</v>
       </c>
       <c r="G23">
-        <v>2.116169832139706</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>40.45456617667548</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.771811967152155</v>
       </c>
       <c r="J23">
-        <v>7.728701813682242</v>
+        <v>12.70422473836254</v>
       </c>
       <c r="K23">
-        <v>13.56556560395374</v>
+        <v>19.74562362376169</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.2586973893889</v>
       </c>
       <c r="M23">
-        <v>11.29959353879189</v>
+        <v>14.15134317319148</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.33943849482699</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.65145608779462</v>
+        <v>14.21613373575552</v>
       </c>
       <c r="C24">
-        <v>6.898876430589768</v>
+        <v>9.677461736162067</v>
       </c>
       <c r="D24">
-        <v>6.139567512236909</v>
+        <v>5.983476324096557</v>
       </c>
       <c r="E24">
-        <v>5.297966202017543</v>
+        <v>9.341497041758116</v>
       </c>
       <c r="F24">
-        <v>77.76841433112112</v>
+        <v>30.90797326172225</v>
       </c>
       <c r="G24">
-        <v>2.135318057933267</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>39.08300655965953</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.120388985861725</v>
       </c>
       <c r="J24">
-        <v>7.543281326010151</v>
+        <v>12.58865145603062</v>
       </c>
       <c r="K24">
-        <v>12.39406295554</v>
+        <v>19.56562548151314</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.230774527852978</v>
       </c>
       <c r="M24">
-        <v>10.53671108322794</v>
+        <v>13.15132254717055</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.58874232204043</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.25947290871196</v>
+        <v>12.91181716091344</v>
       </c>
       <c r="C25">
-        <v>6.111296417957325</v>
+        <v>8.723179795551244</v>
       </c>
       <c r="D25">
-        <v>5.658109550212523</v>
+        <v>5.592655837841388</v>
       </c>
       <c r="E25">
-        <v>5.303898049240709</v>
+        <v>8.948709790079132</v>
       </c>
       <c r="F25">
-        <v>72.05807620291102</v>
+        <v>29.90432807594696</v>
       </c>
       <c r="G25">
-        <v>2.156114050427609</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>37.64337194297045</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.513126495399369</v>
       </c>
       <c r="J25">
-        <v>7.352805778141677</v>
+        <v>12.48408471329232</v>
       </c>
       <c r="K25">
-        <v>11.06522321792315</v>
+        <v>19.39786647237335</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.210781892871974</v>
       </c>
       <c r="M25">
-        <v>10.11702872233651</v>
+        <v>11.98931402948535</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>11.76447773667265</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.88297169371704</v>
+        <v>11.84320311494922</v>
       </c>
       <c r="C2">
-        <v>7.889912599155903</v>
+        <v>8.573626641745562</v>
       </c>
       <c r="D2">
-        <v>5.266678063342315</v>
+        <v>5.647270431157892</v>
       </c>
       <c r="E2">
-        <v>8.657419120247697</v>
+        <v>8.79174895248036</v>
       </c>
       <c r="F2">
-        <v>29.3281160810526</v>
+        <v>27.62370730222894</v>
       </c>
       <c r="G2">
-        <v>36.85098422862688</v>
+        <v>33.75180905191365</v>
       </c>
       <c r="I2">
-        <v>3.791865716814595</v>
+        <v>3.541442405932408</v>
       </c>
       <c r="J2">
-        <v>12.46709777370681</v>
+        <v>11.90834179185627</v>
       </c>
       <c r="K2">
-        <v>19.39472967583186</v>
+        <v>17.87323574657904</v>
       </c>
       <c r="L2">
-        <v>6.20846620698019</v>
+        <v>14.23196382439145</v>
       </c>
       <c r="M2">
-        <v>11.04896245926897</v>
+        <v>12.2408967609802</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.149210289212248</v>
       </c>
       <c r="O2">
-        <v>11.12146482941654</v>
+        <v>11.23892430350919</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.26461642010435</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.11819376637551</v>
+        <v>11.12065248587033</v>
       </c>
       <c r="C3">
-        <v>7.337347971026495</v>
+        <v>7.924828259085001</v>
       </c>
       <c r="D3">
-        <v>5.060243213343934</v>
+        <v>5.408511734757979</v>
       </c>
       <c r="E3">
-        <v>8.470673817259279</v>
+        <v>8.596739427944978</v>
       </c>
       <c r="F3">
-        <v>28.88491847901447</v>
+        <v>27.31688940416703</v>
       </c>
       <c r="G3">
-        <v>36.20796107917322</v>
+        <v>33.42918956068859</v>
       </c>
       <c r="I3">
-        <v>4.004268764475278</v>
+        <v>3.72418182492804</v>
       </c>
       <c r="J3">
-        <v>12.43977886163445</v>
+        <v>11.87276544388747</v>
       </c>
       <c r="K3">
-        <v>19.34768243034133</v>
+        <v>17.92418776919787</v>
       </c>
       <c r="L3">
-        <v>6.209341774934677</v>
+        <v>14.34015693047941</v>
       </c>
       <c r="M3">
-        <v>10.372845562429</v>
+        <v>12.2335827652769</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.15515776811025</v>
       </c>
       <c r="O3">
-        <v>10.6840840100356</v>
+        <v>10.5546556298743</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.79963312519978</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.62029805251941</v>
+        <v>10.65077993428353</v>
       </c>
       <c r="C4">
-        <v>6.984054346761442</v>
+        <v>7.508777774234702</v>
       </c>
       <c r="D4">
-        <v>4.933190253855893</v>
+        <v>5.261126722955216</v>
       </c>
       <c r="E4">
-        <v>8.359182851301144</v>
+        <v>8.480210316017082</v>
       </c>
       <c r="F4">
-        <v>28.62081054323874</v>
+        <v>27.13578611014406</v>
       </c>
       <c r="G4">
-        <v>35.82094311842269</v>
+        <v>33.24415211612507</v>
       </c>
       <c r="I4">
-        <v>4.139743756797198</v>
+        <v>3.84109974671026</v>
       </c>
       <c r="J4">
-        <v>12.42659205836762</v>
+        <v>11.85162569334449</v>
       </c>
       <c r="K4">
-        <v>19.32259953189298</v>
+        <v>17.95786595160324</v>
       </c>
       <c r="L4">
-        <v>6.212112824317077</v>
+        <v>14.40470277450671</v>
       </c>
       <c r="M4">
-        <v>9.935544072444941</v>
+        <v>12.24743415897927</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.161003794456744</v>
       </c>
       <c r="O4">
-        <v>10.41174649088144</v>
+        <v>10.11207278286304</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.50889472962127</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.40777598926208</v>
+        <v>10.45044319846023</v>
       </c>
       <c r="C5">
-        <v>6.846503492968941</v>
+        <v>7.344393926517226</v>
       </c>
       <c r="D5">
-        <v>4.885030583421615</v>
+        <v>5.204301361121334</v>
       </c>
       <c r="E5">
-        <v>8.315620840072295</v>
+        <v>8.434533892370119</v>
       </c>
       <c r="F5">
-        <v>28.50112711237222</v>
+        <v>27.05097863765774</v>
       </c>
       <c r="G5">
-        <v>35.6401673999699</v>
+        <v>33.14940988630088</v>
       </c>
       <c r="I5">
-        <v>4.198785516342644</v>
+        <v>3.89289110947028</v>
       </c>
       <c r="J5">
-        <v>12.41742535911861</v>
+        <v>11.83887619212176</v>
       </c>
       <c r="K5">
-        <v>19.30274994596046</v>
+        <v>17.96296063263559</v>
       </c>
       <c r="L5">
-        <v>6.213344378699319</v>
+        <v>14.42223727882288</v>
       </c>
       <c r="M5">
-        <v>9.753225824502961</v>
+        <v>12.25202853623021</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.163518720048324</v>
       </c>
       <c r="O5">
-        <v>10.30182015838183</v>
+        <v>9.927443711198613</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.39097527812921</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.36901226625286</v>
+        <v>10.41399395424274</v>
       </c>
       <c r="C6">
-        <v>6.835633440942157</v>
+        <v>7.32858665122784</v>
       </c>
       <c r="D6">
-        <v>4.88145224609387</v>
+        <v>5.198932243904834</v>
       </c>
       <c r="E6">
-        <v>8.309697312573675</v>
+        <v>8.428164722955756</v>
       </c>
       <c r="F6">
-        <v>28.46411456920013</v>
+        <v>27.02132646340848</v>
       </c>
       <c r="G6">
-        <v>35.57957642355441</v>
+        <v>33.10634905860903</v>
       </c>
       <c r="I6">
-        <v>4.211909296493643</v>
+        <v>3.905339460761533</v>
       </c>
       <c r="J6">
-        <v>12.41024490323406</v>
+        <v>11.83150531472377</v>
       </c>
       <c r="K6">
-        <v>19.28661006717657</v>
+        <v>17.95260375412381</v>
       </c>
       <c r="L6">
-        <v>6.213033948594454</v>
+        <v>14.41499854728566</v>
       </c>
       <c r="M6">
-        <v>9.724384632862934</v>
+        <v>12.24619926430028</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.163469919572752</v>
       </c>
       <c r="O6">
-        <v>10.28577552945733</v>
+        <v>9.898087993854659</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.37340745550599</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.60933984955495</v>
+        <v>10.64195915658894</v>
       </c>
       <c r="C7">
-        <v>7.01459651502624</v>
+        <v>7.52844474557204</v>
       </c>
       <c r="D7">
-        <v>4.94442204726577</v>
+        <v>5.278304524367331</v>
       </c>
       <c r="E7">
-        <v>8.361997535871483</v>
+        <v>8.485335564041426</v>
       </c>
       <c r="F7">
-        <v>28.5723024651178</v>
+        <v>27.06689180443407</v>
       </c>
       <c r="G7">
-        <v>35.73516490401015</v>
+        <v>33.2204794505244</v>
       </c>
       <c r="I7">
-        <v>4.149137329477352</v>
+        <v>3.852520078007163</v>
       </c>
       <c r="J7">
-        <v>12.41090843526356</v>
+        <v>11.79264817601737</v>
       </c>
       <c r="K7">
-        <v>19.28716786991768</v>
+        <v>17.91343662908915</v>
       </c>
       <c r="L7">
-        <v>6.210636205950686</v>
+        <v>14.36555497612644</v>
       </c>
       <c r="M7">
-        <v>9.937834692121616</v>
+        <v>12.21948106182491</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.159131738864737</v>
       </c>
       <c r="O7">
-        <v>10.41630973044565</v>
+        <v>10.11189442589863</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.51362356787115</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.61519386229982</v>
+        <v>11.59441538933736</v>
       </c>
       <c r="C8">
-        <v>7.741453768478849</v>
+        <v>8.362795989908117</v>
       </c>
       <c r="D8">
-        <v>5.210534607607911</v>
+        <v>5.601031825580556</v>
       </c>
       <c r="E8">
-        <v>8.596769285265161</v>
+        <v>8.736317606139799</v>
       </c>
       <c r="F8">
-        <v>29.11296516681498</v>
+        <v>27.3795590209273</v>
       </c>
       <c r="G8">
-        <v>36.52003862434889</v>
+        <v>33.7142470986968</v>
       </c>
       <c r="I8">
-        <v>3.875066840400559</v>
+        <v>3.618513907151621</v>
       </c>
       <c r="J8">
-        <v>12.43654188670034</v>
+        <v>11.73217987419756</v>
       </c>
       <c r="K8">
-        <v>19.33158734434149</v>
+        <v>17.8050037473959</v>
       </c>
       <c r="L8">
-        <v>6.20634675747166</v>
+        <v>14.19845023995588</v>
       </c>
       <c r="M8">
-        <v>10.82626764805995</v>
+        <v>12.17600810350291</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.147234027548806</v>
       </c>
       <c r="O8">
-        <v>10.97906331134944</v>
+        <v>11.00663157823983</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.11460862339828</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.37694203451053</v>
+        <v>13.26113992152777</v>
       </c>
       <c r="C9">
-        <v>9.005922447802575</v>
+        <v>9.844792864865596</v>
       </c>
       <c r="D9">
-        <v>5.70697156479152</v>
+        <v>6.1792731178551</v>
       </c>
       <c r="E9">
-        <v>9.074411929723395</v>
+        <v>9.236499447845519</v>
       </c>
       <c r="F9">
-        <v>30.31632539760238</v>
+        <v>28.2175552910987</v>
       </c>
       <c r="G9">
-        <v>38.26201060181948</v>
+        <v>34.72715242016024</v>
       </c>
       <c r="I9">
-        <v>3.362660640741727</v>
+        <v>3.177301247749976</v>
       </c>
       <c r="J9">
-        <v>12.54384351386692</v>
+        <v>11.8042605676991</v>
       </c>
       <c r="K9">
-        <v>19.51242399731415</v>
+        <v>17.71702425742273</v>
       </c>
       <c r="L9">
-        <v>6.218809020154811</v>
+        <v>13.944377830065</v>
       </c>
       <c r="M9">
-        <v>12.38491748277694</v>
+        <v>12.30768998187592</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.146220032520046</v>
       </c>
       <c r="O9">
-        <v>12.03633725378306</v>
+        <v>12.58306150611766</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.23292131613738</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.53338553966061</v>
+        <v>14.36219434277949</v>
       </c>
       <c r="C10">
-        <v>9.882098908519637</v>
+        <v>10.82152085657692</v>
       </c>
       <c r="D10">
-        <v>6.069528498133832</v>
+        <v>6.630992784423552</v>
       </c>
       <c r="E10">
-        <v>9.43825244748218</v>
+        <v>9.62973781580853</v>
       </c>
       <c r="F10">
-        <v>31.2136651901799</v>
+        <v>28.71608041274551</v>
       </c>
       <c r="G10">
-        <v>39.53469171192619</v>
+        <v>35.80332057251013</v>
       </c>
       <c r="I10">
-        <v>3.014277337497978</v>
+        <v>2.884336848806708</v>
       </c>
       <c r="J10">
-        <v>12.63479127005293</v>
+        <v>11.61095980369507</v>
       </c>
       <c r="K10">
-        <v>19.64953296654819</v>
+        <v>17.57580725288133</v>
       </c>
       <c r="L10">
-        <v>6.239108738545924</v>
+        <v>13.68227536034961</v>
       </c>
       <c r="M10">
-        <v>13.42525380507501</v>
+        <v>12.4221763124066</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.153442662812676</v>
       </c>
       <c r="O10">
-        <v>12.78624603095495</v>
+        <v>13.62459844598583</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.02249857776577</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.02104462922348</v>
+        <v>14.8372205019411</v>
       </c>
       <c r="C11">
-        <v>10.30335527339208</v>
+        <v>11.21523460804589</v>
       </c>
       <c r="D11">
-        <v>6.247470246705195</v>
+        <v>6.904558693951255</v>
       </c>
       <c r="E11">
-        <v>9.610454393068178</v>
+        <v>9.838168541417469</v>
       </c>
       <c r="F11">
-        <v>31.56088039832709</v>
+        <v>28.65579716584502</v>
       </c>
       <c r="G11">
-        <v>40.00012489466544</v>
+        <v>36.72329320936597</v>
       </c>
       <c r="I11">
-        <v>2.877269918587723</v>
+        <v>2.78053335911996</v>
       </c>
       <c r="J11">
-        <v>12.65664519122717</v>
+        <v>11.09728738942005</v>
       </c>
       <c r="K11">
-        <v>19.66224052858131</v>
+        <v>17.33473010262907</v>
       </c>
       <c r="L11">
-        <v>6.248759401889573</v>
+        <v>13.43558383139468</v>
       </c>
       <c r="M11">
-        <v>13.88127907975397</v>
+        <v>12.34550699081997</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.151942672242927</v>
       </c>
       <c r="O11">
-        <v>13.12730469677113</v>
+        <v>14.06451329562405</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.38374124717749</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.20696238888867</v>
+        <v>15.01933763776334</v>
       </c>
       <c r="C12">
-        <v>10.44058347093705</v>
+        <v>11.33473843601708</v>
       </c>
       <c r="D12">
-        <v>6.306112076684127</v>
+        <v>7.006609991011814</v>
       </c>
       <c r="E12">
-        <v>9.673314992139449</v>
+        <v>9.917766133525589</v>
       </c>
       <c r="F12">
-        <v>31.73019770589083</v>
+        <v>28.63862091378421</v>
       </c>
       <c r="G12">
-        <v>40.24200458362594</v>
+        <v>37.20045409783231</v>
       </c>
       <c r="I12">
-        <v>2.817816566853232</v>
+        <v>2.732676486270758</v>
       </c>
       <c r="J12">
-        <v>12.67853842900305</v>
+        <v>10.87179419187637</v>
       </c>
       <c r="K12">
-        <v>19.69712522712517</v>
+        <v>17.25194095418703</v>
       </c>
       <c r="L12">
-        <v>6.254063989414826</v>
+        <v>13.34926263844977</v>
       </c>
       <c r="M12">
-        <v>14.04755288100341</v>
+        <v>12.32433253827222</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.152211658067388</v>
       </c>
       <c r="O12">
-        <v>13.25115813263429</v>
+        <v>14.22306703037195</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.51576485955837</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.16814849969846</v>
+        <v>14.98119083313325</v>
       </c>
       <c r="C13">
-        <v>10.40715802365278</v>
+        <v>11.30563775596647</v>
       </c>
       <c r="D13">
-        <v>6.291855828116377</v>
+        <v>6.982845432741727</v>
       </c>
       <c r="E13">
-        <v>9.659256200608288</v>
+        <v>9.900016134580733</v>
       </c>
       <c r="F13">
-        <v>31.70099797928054</v>
+        <v>28.6501130089922</v>
       </c>
       <c r="G13">
-        <v>40.20271224582576</v>
+        <v>37.10625697031178</v>
       </c>
       <c r="I13">
-        <v>2.828783607066832</v>
+        <v>2.740815114236102</v>
       </c>
       <c r="J13">
-        <v>12.67637556719608</v>
+        <v>10.92400517941226</v>
       </c>
       <c r="K13">
-        <v>19.6954354358217</v>
+        <v>17.27537953409145</v>
       </c>
       <c r="L13">
-        <v>6.253151988524277</v>
+        <v>13.37175051569497</v>
       </c>
       <c r="M13">
-        <v>14.01127354971626</v>
+        <v>12.33341246962688</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.152390857283907</v>
       </c>
       <c r="O13">
-        <v>13.22372916698238</v>
+        <v>14.18856616647593</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.48663772193691</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.03686943574164</v>
+        <v>14.85266648364982</v>
       </c>
       <c r="C14">
-        <v>10.31298763036432</v>
+        <v>11.22363409814711</v>
       </c>
       <c r="D14">
-        <v>6.251599360228644</v>
+        <v>6.912184267088772</v>
       </c>
       <c r="E14">
-        <v>9.615403388818656</v>
+        <v>9.844454634224858</v>
       </c>
       <c r="F14">
-        <v>31.57790763599833</v>
+        <v>28.65773850786029</v>
       </c>
       <c r="G14">
-        <v>40.02548460694191</v>
+        <v>36.76612769959481</v>
       </c>
       <c r="I14">
-        <v>2.871596683182175</v>
+        <v>2.775671321023823</v>
       </c>
       <c r="J14">
-        <v>12.65953160647929</v>
+        <v>11.08036994098814</v>
       </c>
       <c r="K14">
-        <v>19.66758706596337</v>
+        <v>17.33032949909382</v>
       </c>
       <c r="L14">
-        <v>6.249293398648084</v>
+        <v>13.43016661201816</v>
       </c>
       <c r="M14">
-        <v>13.89476084392092</v>
+        <v>12.34569848134914</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.152066032390955</v>
       </c>
       <c r="O14">
-        <v>13.13717215669209</v>
+        <v>14.0774115264341</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.39430685213591</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.95383616054033</v>
+        <v>14.77168157040787</v>
       </c>
       <c r="C15">
-        <v>10.2629869910327</v>
+        <v>11.17974037178472</v>
       </c>
       <c r="D15">
-        <v>6.230172364309993</v>
+        <v>6.872723210783301</v>
       </c>
       <c r="E15">
-        <v>9.589587767215155</v>
+        <v>9.811757110709829</v>
       </c>
       <c r="F15">
-        <v>31.48813677061663</v>
+        <v>28.64576955471113</v>
       </c>
       <c r="G15">
-        <v>39.89154450064961</v>
+        <v>36.54376743207465</v>
       </c>
       <c r="I15">
-        <v>2.901512817326673</v>
+        <v>2.801408583768534</v>
       </c>
       <c r="J15">
-        <v>12.64420224098521</v>
+        <v>11.16694006697925</v>
       </c>
       <c r="K15">
-        <v>19.63906441016705</v>
+        <v>17.35216505687265</v>
       </c>
       <c r="L15">
-        <v>6.24649216513481</v>
+        <v>13.45767240694802</v>
       </c>
       <c r="M15">
-        <v>13.82419756906318</v>
+        <v>12.34380984595596</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.151386187526479</v>
       </c>
       <c r="O15">
-        <v>13.08561435361361</v>
+        <v>14.00982273667392</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.3390977127474</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.48294939360885</v>
+        <v>14.31427351467397</v>
       </c>
       <c r="C16">
-        <v>9.922862967413382</v>
+        <v>10.86036411727326</v>
       </c>
       <c r="D16">
-        <v>6.086010699283662</v>
+        <v>6.639895082920306</v>
       </c>
       <c r="E16">
-        <v>9.435710035240449</v>
+        <v>9.624537276381192</v>
       </c>
       <c r="F16">
-        <v>31.06760382337138</v>
+        <v>28.60504597299274</v>
       </c>
       <c r="G16">
-        <v>39.28706915917111</v>
+        <v>35.55512355485146</v>
       </c>
       <c r="I16">
-        <v>3.051634650286682</v>
+        <v>2.924593674341797</v>
       </c>
       <c r="J16">
-        <v>12.59023625405898</v>
+        <v>11.60198043213784</v>
       </c>
       <c r="K16">
-        <v>19.55083945605135</v>
+        <v>17.50657578233023</v>
       </c>
       <c r="L16">
-        <v>6.234379268469315</v>
+        <v>13.63695387784</v>
       </c>
       <c r="M16">
-        <v>13.40557723665623</v>
+        <v>12.35962128001681</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.149751003406607</v>
       </c>
       <c r="O16">
-        <v>12.77769849222225</v>
+        <v>13.60506596999966</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.01149641151305</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.18671943007548</v>
+        <v>14.02881803585796</v>
       </c>
       <c r="C17">
-        <v>9.71085001587487</v>
+        <v>10.64641214225825</v>
       </c>
       <c r="D17">
-        <v>5.996975409854495</v>
+        <v>6.508038519563033</v>
       </c>
       <c r="E17">
-        <v>9.341766545702146</v>
+        <v>9.515034965670283</v>
       </c>
       <c r="F17">
-        <v>30.81165949123262</v>
+        <v>28.53263182520555</v>
       </c>
       <c r="G17">
-        <v>38.91812767850008</v>
+        <v>35.06729684342537</v>
       </c>
       <c r="I17">
-        <v>3.145031310657932</v>
+        <v>3.00246147401711</v>
       </c>
       <c r="J17">
-        <v>12.55847913560153</v>
+        <v>11.78671608599062</v>
       </c>
       <c r="K17">
-        <v>19.49838930587445</v>
+        <v>17.57359765288772</v>
       </c>
       <c r="L17">
-        <v>6.227673992989859</v>
+        <v>13.72741877500896</v>
       </c>
       <c r="M17">
-        <v>13.14292996939894</v>
+        <v>12.35002839460683</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.148293734599619</v>
       </c>
       <c r="O17">
-        <v>12.58681631294347</v>
+        <v>13.34760073115396</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.80893631883259</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.01922602213841</v>
+        <v>13.8679711889982</v>
       </c>
       <c r="C18">
-        <v>9.566144164092954</v>
+        <v>10.49592912439296</v>
       </c>
       <c r="D18">
-        <v>5.936812274281836</v>
+        <v>6.428166380077892</v>
       </c>
       <c r="E18">
-        <v>9.285237257057382</v>
+        <v>9.451524277378804</v>
       </c>
       <c r="F18">
-        <v>30.70311132029327</v>
+        <v>28.50822241658375</v>
       </c>
       <c r="G18">
-        <v>38.77341391519312</v>
+        <v>34.88873127923434</v>
       </c>
       <c r="I18">
-        <v>3.190023397130552</v>
+        <v>3.037202343273034</v>
       </c>
       <c r="J18">
-        <v>12.5538491280085</v>
+        <v>11.87311793434889</v>
       </c>
       <c r="K18">
-        <v>19.49859036729223</v>
+        <v>17.62763455910228</v>
       </c>
       <c r="L18">
-        <v>6.225343856277908</v>
+        <v>13.79094620655402</v>
       </c>
       <c r="M18">
-        <v>12.98640219701685</v>
+        <v>12.35780331076955</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.148445531376829</v>
       </c>
       <c r="O18">
-        <v>12.47199207516576</v>
+        <v>13.19301932755281</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.68792488439261</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.95773317430321</v>
+        <v>13.80924245227878</v>
       </c>
       <c r="C19">
-        <v>9.533485891674301</v>
+        <v>10.45975046138597</v>
       </c>
       <c r="D19">
-        <v>5.923141718444836</v>
+        <v>6.408011325137754</v>
       </c>
       <c r="E19">
-        <v>9.268190949141859</v>
+        <v>9.432251931102661</v>
       </c>
       <c r="F19">
-        <v>30.63729113986981</v>
+        <v>28.47074594064131</v>
       </c>
       <c r="G19">
-        <v>38.67309888341936</v>
+        <v>34.78869797118318</v>
       </c>
       <c r="I19">
-        <v>3.212378106559014</v>
+        <v>3.057459031295033</v>
       </c>
       <c r="J19">
-        <v>12.54222484892936</v>
+        <v>11.88810433899731</v>
       </c>
       <c r="K19">
-        <v>19.47580496514759</v>
+        <v>17.62475047350266</v>
       </c>
       <c r="L19">
-        <v>6.223624691308484</v>
+        <v>13.79679232703991</v>
       </c>
       <c r="M19">
-        <v>12.93557870075176</v>
+        <v>12.34403907236825</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.147589953092091</v>
       </c>
       <c r="O19">
-        <v>12.43632888820872</v>
+        <v>13.1424815550721</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.649920701183</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.21896927228478</v>
+        <v>14.05979021052813</v>
       </c>
       <c r="C20">
-        <v>9.73188203966259</v>
+        <v>10.66827764493689</v>
       </c>
       <c r="D20">
-        <v>6.005795240286667</v>
+        <v>6.52103258682043</v>
       </c>
       <c r="E20">
-        <v>9.351540033186186</v>
+        <v>9.526297940208273</v>
       </c>
       <c r="F20">
-        <v>30.84178436584373</v>
+        <v>28.54477418139222</v>
       </c>
       <c r="G20">
-        <v>38.96253712246904</v>
+        <v>35.11959095586177</v>
       </c>
       <c r="I20">
-        <v>3.1343037376569</v>
+        <v>2.993209784363268</v>
       </c>
       <c r="J20">
-        <v>12.56283868358421</v>
+        <v>11.7711705903237</v>
       </c>
       <c r="K20">
-        <v>19.50624081873007</v>
+        <v>17.56946750442546</v>
       </c>
       <c r="L20">
-        <v>6.228459576688882</v>
+        <v>13.71998664350069</v>
       </c>
       <c r="M20">
-        <v>13.17085538205904</v>
+        <v>12.35330245534783</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.148554631677764</v>
       </c>
       <c r="O20">
-        <v>12.60687348425835</v>
+        <v>13.37511853886932</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.83024762203247</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.06965782496931</v>
+        <v>14.88880775102385</v>
       </c>
       <c r="C21">
-        <v>10.3629934061285</v>
+        <v>11.24490099479958</v>
       </c>
       <c r="D21">
-        <v>6.272682102851809</v>
+        <v>6.961948559462432</v>
       </c>
       <c r="E21">
-        <v>9.631149765081229</v>
+        <v>9.87174931118463</v>
       </c>
       <c r="F21">
-        <v>31.57297023850255</v>
+        <v>28.53600770404403</v>
       </c>
       <c r="G21">
-        <v>40.00538650371178</v>
+        <v>36.98534620849145</v>
       </c>
       <c r="I21">
-        <v>2.86937125567776</v>
+        <v>2.779401678626373</v>
       </c>
       <c r="J21">
-        <v>12.6499622462036</v>
+        <v>10.88651422272836</v>
       </c>
       <c r="K21">
-        <v>19.64288171040812</v>
+        <v>17.23976797313446</v>
       </c>
       <c r="L21">
-        <v>6.249019314753726</v>
+        <v>13.36059787067097</v>
       </c>
       <c r="M21">
-        <v>13.93253121485986</v>
+        <v>12.2815281739572</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.149000616793156</v>
       </c>
       <c r="O21">
-        <v>13.16717565779572</v>
+        <v>14.10783538279259</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.42727003364188</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.6091835605113</v>
+        <v>15.41576128763483</v>
       </c>
       <c r="C22">
-        <v>10.73632399999947</v>
+        <v>11.57748592043612</v>
       </c>
       <c r="D22">
-        <v>6.433265985827777</v>
+        <v>7.241102272086573</v>
       </c>
       <c r="E22">
-        <v>9.811583130366055</v>
+        <v>10.09804448262982</v>
       </c>
       <c r="F22">
-        <v>32.10940427158474</v>
+        <v>28.55468055788982</v>
       </c>
       <c r="G22">
-        <v>40.78428905174754</v>
+        <v>38.38925413893719</v>
       </c>
       <c r="I22">
-        <v>2.687136458993726</v>
+        <v>2.627961246113028</v>
       </c>
       <c r="J22">
-        <v>12.72983551726185</v>
+        <v>10.31561122758531</v>
       </c>
       <c r="K22">
-        <v>19.77952155753313</v>
+        <v>17.04329009903079</v>
       </c>
       <c r="L22">
-        <v>6.266658835922358</v>
+        <v>13.14291718593327</v>
       </c>
       <c r="M22">
-        <v>14.40694664618365</v>
+        <v>12.25783510987244</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.152415047055691</v>
       </c>
       <c r="O22">
-        <v>13.58875669492831</v>
+        <v>14.5623717056464</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>13.82030381958872</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.33042955877401</v>
+        <v>15.14037053035484</v>
       </c>
       <c r="C23">
-        <v>10.5114840152846</v>
+        <v>11.39268195222827</v>
       </c>
       <c r="D23">
-        <v>6.336710061620154</v>
+        <v>7.067625121562322</v>
       </c>
       <c r="E23">
-        <v>9.711732980132574</v>
+        <v>9.967959668448367</v>
       </c>
       <c r="F23">
-        <v>31.87179278563941</v>
+        <v>28.64841262459141</v>
       </c>
       <c r="G23">
-        <v>40.45456617667548</v>
+        <v>37.58008659472852</v>
       </c>
       <c r="I23">
-        <v>2.771811967152155</v>
+        <v>2.692945061652088</v>
       </c>
       <c r="J23">
-        <v>12.70422473836254</v>
+        <v>10.72433098759851</v>
       </c>
       <c r="K23">
-        <v>19.74562362376169</v>
+        <v>17.2152198426299</v>
       </c>
       <c r="L23">
-        <v>6.2586973893889</v>
+        <v>13.30546563471286</v>
       </c>
       <c r="M23">
-        <v>14.15134317319148</v>
+        <v>12.32466691104605</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.153285419652442</v>
       </c>
       <c r="O23">
-        <v>13.33943849482699</v>
+        <v>14.3215440820994</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.59750436546095</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.21613373575552</v>
+        <v>14.05655755810811</v>
       </c>
       <c r="C24">
-        <v>9.677461736162067</v>
+        <v>10.61517703082565</v>
       </c>
       <c r="D24">
-        <v>5.983476324096557</v>
+        <v>6.498269373610209</v>
       </c>
       <c r="E24">
-        <v>9.341497041758116</v>
+        <v>9.516014454573611</v>
       </c>
       <c r="F24">
-        <v>30.90797326172225</v>
+        <v>28.61130463991966</v>
       </c>
       <c r="G24">
-        <v>39.08300655965953</v>
+        <v>35.22314441722383</v>
       </c>
       <c r="I24">
-        <v>3.120388985861725</v>
+        <v>2.975214963247743</v>
       </c>
       <c r="J24">
-        <v>12.58865145603062</v>
+        <v>11.80228326647091</v>
       </c>
       <c r="K24">
-        <v>19.56562548151314</v>
+        <v>17.62479656495476</v>
       </c>
       <c r="L24">
-        <v>6.230774527852978</v>
+        <v>13.76256763562</v>
       </c>
       <c r="M24">
-        <v>13.15132254717055</v>
+        <v>12.39399852001741</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.150851967564111</v>
       </c>
       <c r="O24">
-        <v>12.58874232204043</v>
+        <v>13.35620322494834</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.81230510618797</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.91181716091344</v>
+        <v>12.81962831218613</v>
       </c>
       <c r="C25">
-        <v>8.723179795551244</v>
+        <v>9.515691003873</v>
       </c>
       <c r="D25">
-        <v>5.592655837841388</v>
+        <v>6.033144757989266</v>
       </c>
       <c r="E25">
-        <v>8.948709790079132</v>
+        <v>9.100863690752341</v>
       </c>
       <c r="F25">
-        <v>29.90432807594696</v>
+        <v>27.94617438560439</v>
       </c>
       <c r="G25">
-        <v>37.64337194297045</v>
+        <v>34.23997442127624</v>
       </c>
       <c r="I25">
-        <v>3.513126495399369</v>
+        <v>3.310605288825442</v>
       </c>
       <c r="J25">
-        <v>12.48408471329232</v>
+        <v>11.82110752964195</v>
       </c>
       <c r="K25">
-        <v>19.39786647237335</v>
+        <v>17.70459560220349</v>
       </c>
       <c r="L25">
-        <v>6.210781892871974</v>
+        <v>13.98850119069286</v>
       </c>
       <c r="M25">
-        <v>11.98931402948535</v>
+        <v>12.23080250561876</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.142876167915979</v>
       </c>
       <c r="O25">
-        <v>11.76447773667265</v>
+        <v>12.18507412346423</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>11.94429734818842</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
